--- a/data/평균인구수미만지역.xlsx
+++ b/data/평균인구수미만지역.xlsx
@@ -456,16 +456,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>용산구</t>
+          <t>충주시</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>208603</v>
+        <v>198077</v>
       </c>
     </row>
     <row r="3">
@@ -474,16 +474,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>울주군</t>
+          <t>제천시</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>203232</v>
+        <v>127462</v>
       </c>
     </row>
     <row r="4">
@@ -492,16 +492,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>강릉시</t>
+          <t>음성군</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>202520</v>
+        <v>86441</v>
       </c>
     </row>
     <row r="5">
@@ -510,16 +510,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>오산시</t>
+          <t>진천군</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>200793</v>
+        <v>62809</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>연제구</t>
+          <t>옥천군</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>198383</v>
+        <v>47599</v>
       </c>
     </row>
     <row r="7">
@@ -551,11 +551,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>충주시</t>
+          <t>영동군</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>198077</v>
+        <v>46524</v>
       </c>
     </row>
     <row r="8">
@@ -564,16 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>증평군</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>196378</v>
+        <v>34480</v>
       </c>
     </row>
     <row r="9">
@@ -582,16 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>양주시</t>
+          <t>괴산군</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>191266</v>
+        <v>33297</v>
       </c>
     </row>
     <row r="10">
@@ -600,16 +600,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>세종시</t>
+          <t>보은군</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>191233</v>
+        <v>30685</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>대덕구</t>
+          <t>단양군</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>190815</v>
+        <v>27130</v>
       </c>
     </row>
     <row r="12">
@@ -636,16 +636,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>서산시</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>190537</v>
+        <v>158771</v>
       </c>
     </row>
     <row r="13">
@@ -654,16 +654,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>북구</t>
+          <t>당진시</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>180756</v>
+        <v>153415</v>
       </c>
     </row>
     <row r="14">
@@ -672,16 +672,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>달성군</t>
+          <t>논산시</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>178203</v>
+        <v>112516</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>구리시</t>
+          <t>공주시</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>175676</v>
+        <v>102371</v>
       </c>
     </row>
     <row r="16">
@@ -708,16 +708,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>안성시</t>
+          <t>보령시</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>173061</v>
+        <v>96133</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>수영구</t>
+          <t>홍성군</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>168618</v>
+        <v>87904</v>
       </c>
     </row>
     <row r="18">
@@ -744,16 +744,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>예산군</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>164738</v>
+        <v>76757</v>
       </c>
     </row>
     <row r="19">
@@ -767,11 +767,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>서산시</t>
+          <t>부여군</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>158771</v>
+        <v>64652</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +780,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>안동시</t>
+          <t>태안군</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>157317</v>
+        <v>56489</v>
       </c>
     </row>
     <row r="21">
@@ -798,16 +798,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>남구</t>
+          <t>서천군</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>154414</v>
+        <v>51776</v>
       </c>
     </row>
     <row r="22">
@@ -821,11 +821,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>당진시</t>
+          <t>금산군</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>153415</v>
+        <v>51134</v>
       </c>
     </row>
     <row r="23">
@@ -834,16 +834,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>하남시</t>
+          <t>계룡시</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>150061</v>
+        <v>37690</v>
       </c>
     </row>
     <row r="24">
@@ -852,16 +852,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>의왕시</t>
+          <t>청양군</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>149080</v>
+        <v>29671</v>
       </c>
     </row>
     <row r="25">
@@ -888,16 +888,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>기장군</t>
+          <t>정읍시</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>142223</v>
+        <v>104307</v>
       </c>
     </row>
     <row r="27">
@@ -906,16 +906,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>완주군</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>140595</v>
+        <v>87465</v>
       </c>
     </row>
     <row r="28">
@@ -924,16 +924,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>포천시</t>
+          <t>김제시</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>140159</v>
+        <v>78991</v>
       </c>
     </row>
     <row r="29">
@@ -942,16 +942,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>광양시</t>
+          <t>남원시</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>138071</v>
+        <v>76854</v>
       </c>
     </row>
     <row r="30">
@@ -960,16 +960,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>통영시</t>
+          <t>고창군</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>129599</v>
+        <v>51887</v>
       </c>
     </row>
     <row r="31">
@@ -978,16 +978,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>김천시</t>
+          <t>부안군</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>127941</v>
+        <v>49980</v>
       </c>
     </row>
     <row r="32">
@@ -996,16 +996,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>제천시</t>
+          <t>순창군</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>127462</v>
+        <v>25542</v>
       </c>
     </row>
     <row r="33">
@@ -1014,16 +1014,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>영도구</t>
+          <t>임실군</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>122446</v>
+        <v>24973</v>
       </c>
     </row>
     <row r="34">
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>무주군</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>114967</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="35">
@@ -1050,16 +1050,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>논산시</t>
+          <t>진안군</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>112516</v>
+        <v>21917</v>
       </c>
     </row>
     <row r="36">
@@ -1068,16 +1068,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>칠곡군</t>
+          <t>장수군</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>112446</v>
+        <v>20492</v>
       </c>
     </row>
     <row r="37">
@@ -1086,16 +1086,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>광양시</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>107107</v>
+        <v>138071</v>
       </c>
     </row>
     <row r="38">
@@ -1104,16 +1104,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>사천시</t>
+          <t>나주시</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>106388</v>
+        <v>85081</v>
       </c>
     </row>
     <row r="39">
@@ -1122,16 +1122,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>무안군</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>105029</v>
+        <v>72905</v>
       </c>
     </row>
     <row r="40">
@@ -1140,16 +1140,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>정읍시</t>
+          <t>해남군</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>104307</v>
+        <v>65184</v>
       </c>
     </row>
     <row r="41">
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>공주시</t>
+          <t>고흥군</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>102371</v>
+        <v>59975</v>
       </c>
     </row>
     <row r="42">
@@ -1176,16 +1176,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>영주시</t>
+          <t>화순군</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>101612</v>
+        <v>58331</v>
       </c>
     </row>
     <row r="43">
@@ -1194,16 +1194,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>여주시</t>
+          <t>영암군</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>100669</v>
+        <v>52823</v>
       </c>
     </row>
     <row r="44">
@@ -1212,16 +1212,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>영광군</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>97571</v>
+        <v>48141</v>
       </c>
     </row>
     <row r="45">
@@ -1230,16 +1230,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>밀양시</t>
+          <t>완도군</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>97525</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="46">
@@ -1248,16 +1248,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>보령시</t>
+          <t>담양군</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>96133</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="47">
@@ -1266,16 +1266,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>양평군</t>
+          <t>보성군</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>95614</v>
+        <v>38705</v>
       </c>
     </row>
     <row r="48">
@@ -1284,16 +1284,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>상주시</t>
+          <t>장성군</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>93305</v>
+        <v>38578</v>
       </c>
     </row>
     <row r="49">
@@ -1302,16 +1302,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>영천시</t>
+          <t>장흥군</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>91214</v>
+        <v>35397</v>
       </c>
     </row>
     <row r="50">
@@ -1320,16 +1320,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>동두천시</t>
+          <t>신안군</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>90398</v>
+        <v>34396</v>
       </c>
     </row>
     <row r="51">
@@ -1338,16 +1338,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>홍성군</t>
+          <t>강진군</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>87904</v>
+        <v>33413</v>
       </c>
     </row>
     <row r="52">
@@ -1356,16 +1356,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>완주군</t>
+          <t>함평군</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>87465</v>
+        <v>29242</v>
       </c>
     </row>
     <row r="53">
@@ -1374,16 +1374,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>동해시</t>
+          <t>진도군</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>86747</v>
+        <v>28133</v>
       </c>
     </row>
     <row r="54">
@@ -1392,16 +1392,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>음성군</t>
+          <t>곡성군</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>86441</v>
+        <v>26245</v>
       </c>
     </row>
     <row r="55">
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>구례군</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>85952</v>
+        <v>23189</v>
       </c>
     </row>
     <row r="56">
@@ -1428,16 +1428,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>나주시</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>85081</v>
+        <v>105029</v>
       </c>
     </row>
     <row r="57">
@@ -1446,16 +1446,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>강서구</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>84722</v>
+        <v>68950</v>
       </c>
     </row>
     <row r="58">
@@ -1464,16 +1464,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>김제시</t>
+          <t>강화군</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>78991</v>
+        <v>58296</v>
       </c>
     </row>
     <row r="59">
@@ -1482,16 +1482,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>남원시</t>
+          <t>옹진군</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>76854</v>
+        <v>17735</v>
       </c>
     </row>
     <row r="60">
@@ -1500,16 +1500,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>예산군</t>
+          <t>울주군</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>76757</v>
+        <v>203232</v>
       </c>
     </row>
     <row r="61">
@@ -1518,16 +1518,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>속초시</t>
+          <t>북구</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>76733</v>
+        <v>180756</v>
       </c>
     </row>
     <row r="62">
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>74950</v>
+        <v>164738</v>
       </c>
     </row>
     <row r="63">
@@ -1554,16 +1554,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>무안군</t>
+          <t>세종시</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>72905</v>
+        <v>191233</v>
       </c>
     </row>
     <row r="64">
@@ -1572,16 +1572,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>용산구</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>68950</v>
+        <v>208603</v>
       </c>
     </row>
     <row r="65">
@@ -1590,16 +1590,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>문경시</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>67919</v>
+        <v>140595</v>
       </c>
     </row>
     <row r="66">
@@ -1608,16 +1608,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>해남군</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>65184</v>
+        <v>114967</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>부여군</t>
+          <t>연제구</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>64652</v>
+        <v>198383</v>
       </c>
     </row>
     <row r="68">
@@ -1644,16 +1644,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>삼척시</t>
+          <t>수영구</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>63986</v>
+        <v>168618</v>
       </c>
     </row>
     <row r="69">
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>과천시</t>
+          <t>기장군</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>63227</v>
+        <v>142223</v>
       </c>
     </row>
     <row r="70">
@@ -1680,16 +1680,16 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>함안군</t>
+          <t>영도구</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>63142</v>
+        <v>122446</v>
       </c>
     </row>
     <row r="71">
@@ -1698,16 +1698,16 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>홍천군</t>
+          <t>서구</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>62957</v>
+        <v>107107</v>
       </c>
     </row>
     <row r="72">
@@ -1716,16 +1716,16 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>진천군</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>62809</v>
+        <v>85952</v>
       </c>
     </row>
     <row r="73">
@@ -1734,16 +1734,16 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>고흥군</t>
+          <t>강서구</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>59975</v>
+        <v>84722</v>
       </c>
     </row>
     <row r="74">
@@ -1752,16 +1752,16 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>화순군</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>58331</v>
+        <v>43105</v>
       </c>
     </row>
     <row r="75">
@@ -1770,16 +1770,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>강화군</t>
+          <t>대덕구</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>58296</v>
+        <v>190815</v>
       </c>
     </row>
     <row r="76">
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>거창군</t>
+          <t>서구</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>57384</v>
+        <v>196378</v>
       </c>
     </row>
     <row r="77">
@@ -1806,16 +1806,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>창녕군</t>
+          <t>달성군</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>56734</v>
+        <v>178203</v>
       </c>
     </row>
     <row r="78">
@@ -1824,16 +1824,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>태안군</t>
+          <t>남구</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>56489</v>
+        <v>154414</v>
       </c>
     </row>
     <row r="79">
@@ -1842,16 +1842,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>가평군</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>53497</v>
+        <v>74950</v>
       </c>
     </row>
     <row r="80">
@@ -1860,16 +1860,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>영암군</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>52823</v>
+        <v>97571</v>
       </c>
     </row>
     <row r="81">
@@ -1878,16 +1878,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>고창군</t>
+          <t>안동시</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>51887</v>
+        <v>157317</v>
       </c>
     </row>
     <row r="82">
@@ -1896,16 +1896,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>서천군</t>
+          <t>김천시</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>51776</v>
+        <v>127941</v>
       </c>
     </row>
     <row r="83">
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>금산군</t>
+          <t>칠곡군</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>51134</v>
+        <v>112446</v>
       </c>
     </row>
     <row r="84">
@@ -1932,16 +1932,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>부안군</t>
+          <t>영주시</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>49980</v>
+        <v>101612</v>
       </c>
     </row>
     <row r="85">
@@ -1950,16 +1950,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>고성군</t>
+          <t>상주시</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>49559</v>
+        <v>93305</v>
       </c>
     </row>
     <row r="86">
@@ -1973,11 +1973,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>의성군</t>
+          <t>영천시</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>48776</v>
+        <v>91214</v>
       </c>
     </row>
     <row r="87">
@@ -1986,16 +1986,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>영광군</t>
+          <t>문경시</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>48141</v>
+        <v>67919</v>
       </c>
     </row>
     <row r="88">
@@ -2004,16 +2004,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>옥천군</t>
+          <t>의성군</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>47599</v>
+        <v>48776</v>
       </c>
     </row>
     <row r="89">
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>영동군</t>
+          <t>예천군</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>46524</v>
+        <v>40779</v>
       </c>
     </row>
     <row r="91">
@@ -2058,16 +2058,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>완도군</t>
+          <t>청도군</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>45985</v>
+        <v>38571</v>
       </c>
     </row>
     <row r="92">
@@ -2076,16 +2076,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>태백시</t>
+          <t>성주군</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>44175</v>
+        <v>38277</v>
       </c>
     </row>
     <row r="93">
@@ -2094,16 +2094,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>철원군</t>
+          <t>영덕군</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>43189</v>
+        <v>34864</v>
       </c>
     </row>
     <row r="94">
@@ -2112,16 +2112,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>고령군</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>43105</v>
+        <v>31189</v>
       </c>
     </row>
     <row r="95">
@@ -2130,16 +2130,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>하동군</t>
+          <t>봉화군</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>43029</v>
+        <v>30287</v>
       </c>
     </row>
     <row r="96">
@@ -2148,16 +2148,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>합천군</t>
+          <t>청송군</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>42515</v>
+        <v>23804</v>
       </c>
     </row>
     <row r="97">
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>남해군</t>
+          <t>군위군</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>41388</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="98">
@@ -2184,16 +2184,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>영양군</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>41076</v>
+        <v>16009</v>
       </c>
     </row>
     <row r="99">
@@ -2207,11 +2207,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>예천군</t>
+          <t>울릉군</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>40779</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="100">
@@ -2220,16 +2220,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>담양군</t>
+          <t>통영시</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>39718</v>
+        <v>129599</v>
       </c>
     </row>
     <row r="101">
@@ -2238,16 +2238,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>횡성군</t>
+          <t>사천시</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>39668</v>
+        <v>106388</v>
       </c>
     </row>
     <row r="102">
@@ -2256,16 +2256,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>보성군</t>
+          <t>밀양시</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>38705</v>
+        <v>97525</v>
       </c>
     </row>
     <row r="103">
@@ -2274,16 +2274,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>장성군</t>
+          <t>함안군</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>38578</v>
+        <v>63142</v>
       </c>
     </row>
     <row r="104">
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>청도군</t>
+          <t>거창군</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>38571</v>
+        <v>57384</v>
       </c>
     </row>
     <row r="105">
@@ -2310,16 +2310,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>평창군</t>
+          <t>창녕군</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>38439</v>
+        <v>56734</v>
       </c>
     </row>
     <row r="106">
@@ -2328,16 +2328,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>성주군</t>
+          <t>고성군</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>38277</v>
+        <v>49559</v>
       </c>
     </row>
     <row r="107">
@@ -2346,16 +2346,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>계룡시</t>
+          <t>하동군</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>37690</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="108">
@@ -2369,11 +2369,11 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>함양군</t>
+          <t>합천군</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>36371</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="109">
@@ -2382,16 +2382,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>장흥군</t>
+          <t>남해군</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>35397</v>
+        <v>41388</v>
       </c>
     </row>
     <row r="110">
@@ -2400,16 +2400,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>영월군</t>
+          <t>함양군</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>34966</v>
+        <v>36371</v>
       </c>
     </row>
     <row r="111">
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>영덕군</t>
+          <t>산청군</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>34864</v>
+        <v>31983</v>
       </c>
     </row>
     <row r="112">
@@ -2436,16 +2436,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>증평군</t>
+          <t>의령군</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>34480</v>
+        <v>25091</v>
       </c>
     </row>
     <row r="113">
@@ -2454,16 +2454,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>신안군</t>
+          <t>오산시</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>34396</v>
+        <v>200793</v>
       </c>
     </row>
     <row r="114">
@@ -2472,16 +2472,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>정선군</t>
+          <t>양주시</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>34242</v>
+        <v>191266</v>
       </c>
     </row>
     <row r="115">
@@ -2490,16 +2490,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>강진군</t>
+          <t>이천시</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>33413</v>
+        <v>190537</v>
       </c>
     </row>
     <row r="116">
@@ -2508,16 +2508,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>괴산군</t>
+          <t>구리시</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>33297</v>
+        <v>175676</v>
       </c>
     </row>
     <row r="117">
@@ -2526,16 +2526,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>산청군</t>
+          <t>안성시</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>31983</v>
+        <v>173061</v>
       </c>
     </row>
     <row r="118">
@@ -2544,16 +2544,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>고령군</t>
+          <t>하남시</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>31189</v>
+        <v>150061</v>
       </c>
     </row>
     <row r="119">
@@ -2562,16 +2562,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>보은군</t>
+          <t>의왕시</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>30685</v>
+        <v>149080</v>
       </c>
     </row>
     <row r="120">
@@ -2580,16 +2580,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>봉화군</t>
+          <t>포천시</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>30287</v>
+        <v>140159</v>
       </c>
     </row>
     <row r="121">
@@ -2598,16 +2598,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>청양군</t>
+          <t>여주시</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>29671</v>
+        <v>100669</v>
       </c>
     </row>
     <row r="122">
@@ -2616,16 +2616,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>인제군</t>
+          <t>양평군</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>29260</v>
+        <v>95614</v>
       </c>
     </row>
     <row r="123">
@@ -2634,16 +2634,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>함평군</t>
+          <t>동두천시</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>29242</v>
+        <v>90398</v>
       </c>
     </row>
     <row r="124">
@@ -2652,16 +2652,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>진도군</t>
+          <t>과천시</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>28133</v>
+        <v>63227</v>
       </c>
     </row>
     <row r="125">
@@ -2670,16 +2670,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>단양군</t>
+          <t>가평군</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>27130</v>
+        <v>53497</v>
       </c>
     </row>
     <row r="126">
@@ -2688,16 +2688,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>곡성군</t>
+          <t>연천군</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>26245</v>
+        <v>41076</v>
       </c>
     </row>
     <row r="127">
@@ -2711,11 +2711,11 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>고성군</t>
+          <t>강릉시</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>25589</v>
+        <v>202520</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>순창군</t>
+          <t>동해시</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>25542</v>
+        <v>86747</v>
       </c>
     </row>
     <row r="129">
@@ -2742,16 +2742,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>의령군</t>
+          <t>속초시</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>25091</v>
+        <v>76733</v>
       </c>
     </row>
     <row r="130">
@@ -2760,16 +2760,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>임실군</t>
+          <t>삼척시</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>24973</v>
+        <v>63986</v>
       </c>
     </row>
     <row r="131">
@@ -2783,11 +2783,11 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>양양군</t>
+          <t>홍천군</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>24551</v>
+        <v>62957</v>
       </c>
     </row>
     <row r="132">
@@ -2796,16 +2796,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>청송군</t>
+          <t>태백시</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>23804</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="133">
@@ -2819,11 +2819,11 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>화천군</t>
+          <t>철원군</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>23612</v>
+        <v>43189</v>
       </c>
     </row>
     <row r="134">
@@ -2832,16 +2832,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>구례군</t>
+          <t>횡성군</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>23189</v>
+        <v>39668</v>
       </c>
     </row>
     <row r="135">
@@ -2850,16 +2850,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>무주군</t>
+          <t>평창군</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>22417</v>
+        <v>38439</v>
       </c>
     </row>
     <row r="136">
@@ -2868,16 +2868,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>진안군</t>
+          <t>영월군</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>21917</v>
+        <v>34966</v>
       </c>
     </row>
     <row r="137">
@@ -2891,11 +2891,11 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>양구군</t>
+          <t>정선군</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>20809</v>
+        <v>34242</v>
       </c>
     </row>
     <row r="138">
@@ -2904,16 +2904,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>군위군</t>
+          <t>인제군</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>20596</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="139">
@@ -2922,16 +2922,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>장수군</t>
+          <t>고성군</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>20492</v>
+        <v>25589</v>
       </c>
     </row>
     <row r="140">
@@ -2940,16 +2940,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>옹진군</t>
+          <t>양양군</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>17735</v>
+        <v>24551</v>
       </c>
     </row>
     <row r="141">
@@ -2958,16 +2958,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>영양군</t>
+          <t>화천군</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>16009</v>
+        <v>23612</v>
       </c>
     </row>
     <row r="142">
@@ -2976,16 +2976,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>울릉군</t>
+          <t>양구군</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>8392</v>
+        <v>20809</v>
       </c>
     </row>
   </sheetData>

--- a/data/평균인구수미만지역.xlsx
+++ b/data/평균인구수미만지역.xlsx
@@ -456,16 +456,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>충주시</t>
+          <t>강릉시</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>198077</v>
+        <v>202520</v>
       </c>
     </row>
     <row r="3">
@@ -474,16 +474,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>제천시</t>
+          <t>동해시</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>127462</v>
+        <v>86747</v>
       </c>
     </row>
     <row r="4">
@@ -492,16 +492,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>음성군</t>
+          <t>속초시</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>86441</v>
+        <v>76733</v>
       </c>
     </row>
     <row r="5">
@@ -510,16 +510,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>진천군</t>
+          <t>삼척시</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62809</v>
+        <v>63986</v>
       </c>
     </row>
     <row r="6">
@@ -528,16 +528,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>옥천군</t>
+          <t>홍천군</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>47599</v>
+        <v>62957</v>
       </c>
     </row>
     <row r="7">
@@ -546,16 +546,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>영동군</t>
+          <t>태백시</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>46524</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="8">
@@ -564,16 +564,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>증평군</t>
+          <t>철원군</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>34480</v>
+        <v>43189</v>
       </c>
     </row>
     <row r="9">
@@ -582,16 +582,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>괴산군</t>
+          <t>횡성군</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>33297</v>
+        <v>39668</v>
       </c>
     </row>
     <row r="10">
@@ -600,16 +600,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>보은군</t>
+          <t>평창군</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>30685</v>
+        <v>38439</v>
       </c>
     </row>
     <row r="11">
@@ -618,16 +618,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>충청북도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>단양군</t>
+          <t>영월군</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>27130</v>
+        <v>34966</v>
       </c>
     </row>
     <row r="12">
@@ -636,16 +636,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>서산시</t>
+          <t>정선군</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>158771</v>
+        <v>34242</v>
       </c>
     </row>
     <row r="13">
@@ -654,16 +654,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>당진시</t>
+          <t>인제군</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>153415</v>
+        <v>29260</v>
       </c>
     </row>
     <row r="14">
@@ -672,16 +672,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>논산시</t>
+          <t>고성군</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>112516</v>
+        <v>25589</v>
       </c>
     </row>
     <row r="15">
@@ -690,16 +690,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>공주시</t>
+          <t>양양군</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>102371</v>
+        <v>24551</v>
       </c>
     </row>
     <row r="16">
@@ -708,16 +708,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>보령시</t>
+          <t>화천군</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>96133</v>
+        <v>23612</v>
       </c>
     </row>
     <row r="17">
@@ -726,16 +726,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>강원도</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>홍성군</t>
+          <t>양구군</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>87904</v>
+        <v>20809</v>
       </c>
     </row>
     <row r="18">
@@ -744,16 +744,16 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>예산군</t>
+          <t>오산시</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>76757</v>
+        <v>200793</v>
       </c>
     </row>
     <row r="19">
@@ -762,16 +762,16 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>부여군</t>
+          <t>양주시</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64652</v>
+        <v>191266</v>
       </c>
     </row>
     <row r="20">
@@ -780,16 +780,16 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>태안군</t>
+          <t>이천시</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>56489</v>
+        <v>190537</v>
       </c>
     </row>
     <row r="21">
@@ -798,16 +798,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>서천군</t>
+          <t>구리시</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>51776</v>
+        <v>175676</v>
       </c>
     </row>
     <row r="22">
@@ -816,16 +816,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>금산군</t>
+          <t>안성시</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>51134</v>
+        <v>173061</v>
       </c>
     </row>
     <row r="23">
@@ -834,16 +834,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>계룡시</t>
+          <t>하남시</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37690</v>
+        <v>150061</v>
       </c>
     </row>
     <row r="24">
@@ -852,16 +852,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>충청남도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>청양군</t>
+          <t>의왕시</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>29671</v>
+        <v>149080</v>
       </c>
     </row>
     <row r="25">
@@ -870,16 +870,16 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>제주특별자치도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>서귀포시</t>
+          <t>포천시</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>145369</v>
+        <v>140159</v>
       </c>
     </row>
     <row r="26">
@@ -888,16 +888,16 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>정읍시</t>
+          <t>여주시</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>104307</v>
+        <v>100669</v>
       </c>
     </row>
     <row r="27">
@@ -906,16 +906,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>완주군</t>
+          <t>양평군</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>87465</v>
+        <v>95614</v>
       </c>
     </row>
     <row r="28">
@@ -924,16 +924,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>김제시</t>
+          <t>동두천시</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>78991</v>
+        <v>90398</v>
       </c>
     </row>
     <row r="29">
@@ -942,16 +942,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>남원시</t>
+          <t>과천시</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>76854</v>
+        <v>63227</v>
       </c>
     </row>
     <row r="30">
@@ -960,16 +960,16 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>고창군</t>
+          <t>가평군</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51887</v>
+        <v>53497</v>
       </c>
     </row>
     <row r="31">
@@ -978,16 +978,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경기도</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>부안군</t>
+          <t>연천군</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>49980</v>
+        <v>41076</v>
       </c>
     </row>
     <row r="32">
@@ -996,16 +996,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>순창군</t>
+          <t>통영시</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>25542</v>
+        <v>129599</v>
       </c>
     </row>
     <row r="33">
@@ -1014,16 +1014,16 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>임실군</t>
+          <t>사천시</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>24973</v>
+        <v>106388</v>
       </c>
     </row>
     <row r="34">
@@ -1032,16 +1032,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>무주군</t>
+          <t>밀양시</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>22417</v>
+        <v>97525</v>
       </c>
     </row>
     <row r="35">
@@ -1050,16 +1050,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>진안군</t>
+          <t>함안군</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>21917</v>
+        <v>63142</v>
       </c>
     </row>
     <row r="36">
@@ -1068,16 +1068,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>전라북도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>장수군</t>
+          <t>거창군</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20492</v>
+        <v>57384</v>
       </c>
     </row>
     <row r="37">
@@ -1086,16 +1086,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>광양시</t>
+          <t>창녕군</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>138071</v>
+        <v>56734</v>
       </c>
     </row>
     <row r="38">
@@ -1104,16 +1104,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>나주시</t>
+          <t>고성군</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>85081</v>
+        <v>49559</v>
       </c>
     </row>
     <row r="39">
@@ -1122,16 +1122,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>무안군</t>
+          <t>하동군</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>72905</v>
+        <v>43029</v>
       </c>
     </row>
     <row r="40">
@@ -1140,16 +1140,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>해남군</t>
+          <t>합천군</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>65184</v>
+        <v>42515</v>
       </c>
     </row>
     <row r="41">
@@ -1158,16 +1158,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>고흥군</t>
+          <t>남해군</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>59975</v>
+        <v>41388</v>
       </c>
     </row>
     <row r="42">
@@ -1176,16 +1176,16 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>화순군</t>
+          <t>함양군</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>58331</v>
+        <v>36371</v>
       </c>
     </row>
     <row r="43">
@@ -1194,16 +1194,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>영암군</t>
+          <t>산청군</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>52823</v>
+        <v>31983</v>
       </c>
     </row>
     <row r="44">
@@ -1212,16 +1212,16 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상남도</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>영광군</t>
+          <t>의령군</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>48141</v>
+        <v>25091</v>
       </c>
     </row>
     <row r="45">
@@ -1230,16 +1230,16 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>완도군</t>
+          <t>안동시</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>45985</v>
+        <v>157317</v>
       </c>
     </row>
     <row r="46">
@@ -1248,16 +1248,16 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>담양군</t>
+          <t>김천시</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>39718</v>
+        <v>127941</v>
       </c>
     </row>
     <row r="47">
@@ -1266,16 +1266,16 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>보성군</t>
+          <t>칠곡군</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>38705</v>
+        <v>112446</v>
       </c>
     </row>
     <row r="48">
@@ -1284,16 +1284,16 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>장성군</t>
+          <t>영주시</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>38578</v>
+        <v>101612</v>
       </c>
     </row>
     <row r="49">
@@ -1302,16 +1302,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>장흥군</t>
+          <t>상주시</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>35397</v>
+        <v>93305</v>
       </c>
     </row>
     <row r="50">
@@ -1320,16 +1320,16 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>신안군</t>
+          <t>영천시</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>34396</v>
+        <v>91214</v>
       </c>
     </row>
     <row r="51">
@@ -1338,16 +1338,16 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>강진군</t>
+          <t>문경시</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>33413</v>
+        <v>67919</v>
       </c>
     </row>
     <row r="52">
@@ -1356,16 +1356,16 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>함평군</t>
+          <t>의성군</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>29242</v>
+        <v>48776</v>
       </c>
     </row>
     <row r="53">
@@ -1374,16 +1374,16 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>진도군</t>
+          <t>울진군</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>28133</v>
+        <v>46748</v>
       </c>
     </row>
     <row r="54">
@@ -1392,16 +1392,16 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>곡성군</t>
+          <t>예천군</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>26245</v>
+        <v>40779</v>
       </c>
     </row>
     <row r="55">
@@ -1410,16 +1410,16 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>전라남도</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>구례군</t>
+          <t>청도군</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>23189</v>
+        <v>38571</v>
       </c>
     </row>
     <row r="56">
@@ -1428,16 +1428,16 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>성주군</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>105029</v>
+        <v>38277</v>
       </c>
     </row>
     <row r="57">
@@ -1446,16 +1446,16 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>영덕군</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>68950</v>
+        <v>34864</v>
       </c>
     </row>
     <row r="58">
@@ -1464,16 +1464,16 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>강화군</t>
+          <t>고령군</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>58296</v>
+        <v>31189</v>
       </c>
     </row>
     <row r="59">
@@ -1482,16 +1482,16 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>인천광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>옹진군</t>
+          <t>봉화군</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>17735</v>
+        <v>30287</v>
       </c>
     </row>
     <row r="60">
@@ -1500,16 +1500,16 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>울주군</t>
+          <t>청송군</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>203232</v>
+        <v>23804</v>
       </c>
     </row>
     <row r="61">
@@ -1518,16 +1518,16 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>북구</t>
+          <t>군위군</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>180756</v>
+        <v>20596</v>
       </c>
     </row>
     <row r="62">
@@ -1536,16 +1536,16 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>울산광역시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>영양군</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>164738</v>
+        <v>16009</v>
       </c>
     </row>
     <row r="63">
@@ -1554,16 +1554,16 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>세종특별자치시</t>
+          <t>경상북도</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>세종시</t>
+          <t>울릉군</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>191233</v>
+        <v>8392</v>
       </c>
     </row>
     <row r="64">
@@ -1572,16 +1572,16 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>광주광역시</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>용산구</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>208603</v>
+        <v>97571</v>
       </c>
     </row>
     <row r="65">
@@ -1590,16 +1590,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>종로구</t>
+          <t>서구</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>140595</v>
+        <v>196378</v>
       </c>
     </row>
     <row r="66">
@@ -1608,16 +1608,16 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>서울특별시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>달성군</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>114967</v>
+        <v>178203</v>
       </c>
     </row>
     <row r="67">
@@ -1626,16 +1626,16 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>연제구</t>
+          <t>남구</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>198383</v>
+        <v>154414</v>
       </c>
     </row>
     <row r="68">
@@ -1644,16 +1644,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>대구광역시</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>수영구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>168618</v>
+        <v>74950</v>
       </c>
     </row>
     <row r="69">
@@ -1662,16 +1662,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>부산광역시</t>
+          <t>대전광역시</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>기장군</t>
+          <t>대덕구</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>142223</v>
+        <v>190815</v>
       </c>
     </row>
     <row r="70">
@@ -1685,11 +1685,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>영도구</t>
+          <t>연제구</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>122446</v>
+        <v>198383</v>
       </c>
     </row>
     <row r="71">
@@ -1703,11 +1703,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>수영구</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>107107</v>
+        <v>168618</v>
       </c>
     </row>
     <row r="72">
@@ -1721,11 +1721,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>기장군</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>85952</v>
+        <v>142223</v>
       </c>
     </row>
     <row r="73">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>강서구</t>
+          <t>영도구</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>84722</v>
+        <v>122446</v>
       </c>
     </row>
     <row r="74">
@@ -1757,11 +1757,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>서구</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>43105</v>
+        <v>107107</v>
       </c>
     </row>
     <row r="75">
@@ -1770,16 +1770,16 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>대전광역시</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>대덕구</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>190815</v>
+        <v>85952</v>
       </c>
     </row>
     <row r="76">
@@ -1788,16 +1788,16 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>서구</t>
+          <t>강서구</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>196378</v>
+        <v>84722</v>
       </c>
     </row>
     <row r="77">
@@ -1806,16 +1806,16 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>부산광역시</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>달성군</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>178203</v>
+        <v>43105</v>
       </c>
     </row>
     <row r="78">
@@ -1824,16 +1824,16 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>남구</t>
+          <t>용산구</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>154414</v>
+        <v>208603</v>
       </c>
     </row>
     <row r="79">
@@ -1842,16 +1842,16 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>대구광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>중구</t>
+          <t>종로구</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>74950</v>
+        <v>140595</v>
       </c>
     </row>
     <row r="80">
@@ -1860,16 +1860,16 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>광주광역시</t>
+          <t>서울특별시</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>동구</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>97571</v>
+        <v>114967</v>
       </c>
     </row>
     <row r="81">
@@ -1878,16 +1878,16 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>세종특별자치시</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>안동시</t>
+          <t>세종시</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>157317</v>
+        <v>191233</v>
       </c>
     </row>
     <row r="82">
@@ -1896,16 +1896,16 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>김천시</t>
+          <t>울주군</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>127941</v>
+        <v>203232</v>
       </c>
     </row>
     <row r="83">
@@ -1914,16 +1914,16 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>칠곡군</t>
+          <t>북구</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>112446</v>
+        <v>180756</v>
       </c>
     </row>
     <row r="84">
@@ -1932,16 +1932,16 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>울산광역시</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>영주시</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>101612</v>
+        <v>164738</v>
       </c>
     </row>
     <row r="85">
@@ -1950,16 +1950,16 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>상주시</t>
+          <t>중구</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>93305</v>
+        <v>105029</v>
       </c>
     </row>
     <row r="86">
@@ -1968,16 +1968,16 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>영천시</t>
+          <t>동구</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>91214</v>
+        <v>68950</v>
       </c>
     </row>
     <row r="87">
@@ -1986,16 +1986,16 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>문경시</t>
+          <t>강화군</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>67919</v>
+        <v>58296</v>
       </c>
     </row>
     <row r="88">
@@ -2004,16 +2004,16 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>인천광역시</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>의성군</t>
+          <t>옹진군</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>48776</v>
+        <v>17735</v>
       </c>
     </row>
     <row r="89">
@@ -2022,16 +2022,16 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>울진군</t>
+          <t>광양시</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>46748</v>
+        <v>138071</v>
       </c>
     </row>
     <row r="90">
@@ -2040,16 +2040,16 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>예천군</t>
+          <t>나주시</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>40779</v>
+        <v>85081</v>
       </c>
     </row>
     <row r="91">
@@ -2058,16 +2058,16 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>청도군</t>
+          <t>무안군</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>38571</v>
+        <v>72905</v>
       </c>
     </row>
     <row r="92">
@@ -2076,16 +2076,16 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>성주군</t>
+          <t>해남군</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>38277</v>
+        <v>65184</v>
       </c>
     </row>
     <row r="93">
@@ -2094,16 +2094,16 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>영덕군</t>
+          <t>고흥군</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>34864</v>
+        <v>59975</v>
       </c>
     </row>
     <row r="94">
@@ -2112,16 +2112,16 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>고령군</t>
+          <t>화순군</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>31189</v>
+        <v>58331</v>
       </c>
     </row>
     <row r="95">
@@ -2130,16 +2130,16 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>봉화군</t>
+          <t>영암군</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>30287</v>
+        <v>52823</v>
       </c>
     </row>
     <row r="96">
@@ -2148,16 +2148,16 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>청송군</t>
+          <t>영광군</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>23804</v>
+        <v>48141</v>
       </c>
     </row>
     <row r="97">
@@ -2166,16 +2166,16 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>군위군</t>
+          <t>완도군</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>20596</v>
+        <v>45985</v>
       </c>
     </row>
     <row r="98">
@@ -2184,16 +2184,16 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>영양군</t>
+          <t>담양군</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>16009</v>
+        <v>39718</v>
       </c>
     </row>
     <row r="99">
@@ -2202,16 +2202,16 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>경상북도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>울릉군</t>
+          <t>보성군</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>8392</v>
+        <v>38705</v>
       </c>
     </row>
     <row r="100">
@@ -2220,16 +2220,16 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>통영시</t>
+          <t>장성군</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>129599</v>
+        <v>38578</v>
       </c>
     </row>
     <row r="101">
@@ -2238,16 +2238,16 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>사천시</t>
+          <t>장흥군</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>106388</v>
+        <v>35397</v>
       </c>
     </row>
     <row r="102">
@@ -2256,16 +2256,16 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>밀양시</t>
+          <t>신안군</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>97525</v>
+        <v>34396</v>
       </c>
     </row>
     <row r="103">
@@ -2274,16 +2274,16 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>함안군</t>
+          <t>강진군</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>63142</v>
+        <v>33413</v>
       </c>
     </row>
     <row r="104">
@@ -2292,16 +2292,16 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>거창군</t>
+          <t>함평군</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>57384</v>
+        <v>29242</v>
       </c>
     </row>
     <row r="105">
@@ -2310,16 +2310,16 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>창녕군</t>
+          <t>진도군</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>56734</v>
+        <v>28133</v>
       </c>
     </row>
     <row r="106">
@@ -2328,16 +2328,16 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>고성군</t>
+          <t>곡성군</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>49559</v>
+        <v>26245</v>
       </c>
     </row>
     <row r="107">
@@ -2346,16 +2346,16 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라남도</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>하동군</t>
+          <t>구례군</t>
         </is>
       </c>
       <c r="D107" t="n">
-        <v>43029</v>
+        <v>23189</v>
       </c>
     </row>
     <row r="108">
@@ -2364,16 +2364,16 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>합천군</t>
+          <t>정읍시</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>42515</v>
+        <v>104307</v>
       </c>
     </row>
     <row r="109">
@@ -2382,16 +2382,16 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>남해군</t>
+          <t>완주군</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>41388</v>
+        <v>87465</v>
       </c>
     </row>
     <row r="110">
@@ -2400,16 +2400,16 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>함양군</t>
+          <t>김제시</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>36371</v>
+        <v>78991</v>
       </c>
     </row>
     <row r="111">
@@ -2418,16 +2418,16 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>산청군</t>
+          <t>남원시</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>31983</v>
+        <v>76854</v>
       </c>
     </row>
     <row r="112">
@@ -2436,16 +2436,16 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>경상남도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>의령군</t>
+          <t>고창군</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>25091</v>
+        <v>51887</v>
       </c>
     </row>
     <row r="113">
@@ -2454,16 +2454,16 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>오산시</t>
+          <t>부안군</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>200793</v>
+        <v>49980</v>
       </c>
     </row>
     <row r="114">
@@ -2472,16 +2472,16 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>양주시</t>
+          <t>순창군</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>191266</v>
+        <v>25542</v>
       </c>
     </row>
     <row r="115">
@@ -2490,16 +2490,16 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>이천시</t>
+          <t>임실군</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>190537</v>
+        <v>24973</v>
       </c>
     </row>
     <row r="116">
@@ -2508,16 +2508,16 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>구리시</t>
+          <t>무주군</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>175676</v>
+        <v>22417</v>
       </c>
     </row>
     <row r="117">
@@ -2526,16 +2526,16 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>안성시</t>
+          <t>진안군</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>173061</v>
+        <v>21917</v>
       </c>
     </row>
     <row r="118">
@@ -2544,16 +2544,16 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>전라북도</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>하남시</t>
+          <t>장수군</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>150061</v>
+        <v>20492</v>
       </c>
     </row>
     <row r="119">
@@ -2562,16 +2562,16 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>제주특별자치도</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>의왕시</t>
+          <t>서귀포시</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>149080</v>
+        <v>145369</v>
       </c>
     </row>
     <row r="120">
@@ -2580,16 +2580,16 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>포천시</t>
+          <t>서산시</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>140159</v>
+        <v>158771</v>
       </c>
     </row>
     <row r="121">
@@ -2598,16 +2598,16 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>여주시</t>
+          <t>당진시</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>100669</v>
+        <v>153415</v>
       </c>
     </row>
     <row r="122">
@@ -2616,16 +2616,16 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>양평군</t>
+          <t>논산시</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>95614</v>
+        <v>112516</v>
       </c>
     </row>
     <row r="123">
@@ -2634,16 +2634,16 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>동두천시</t>
+          <t>공주시</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>90398</v>
+        <v>102371</v>
       </c>
     </row>
     <row r="124">
@@ -2652,16 +2652,16 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>과천시</t>
+          <t>보령시</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>63227</v>
+        <v>96133</v>
       </c>
     </row>
     <row r="125">
@@ -2670,16 +2670,16 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>가평군</t>
+          <t>홍성군</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>53497</v>
+        <v>87904</v>
       </c>
     </row>
     <row r="126">
@@ -2688,16 +2688,16 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>경기도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>연천군</t>
+          <t>예산군</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>41076</v>
+        <v>76757</v>
       </c>
     </row>
     <row r="127">
@@ -2706,16 +2706,16 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>강릉시</t>
+          <t>부여군</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>202520</v>
+        <v>64652</v>
       </c>
     </row>
     <row r="128">
@@ -2724,16 +2724,16 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>동해시</t>
+          <t>태안군</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>86747</v>
+        <v>56489</v>
       </c>
     </row>
     <row r="129">
@@ -2742,16 +2742,16 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>속초시</t>
+          <t>서천군</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>76733</v>
+        <v>51776</v>
       </c>
     </row>
     <row r="130">
@@ -2760,16 +2760,16 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>삼척시</t>
+          <t>금산군</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>63986</v>
+        <v>51134</v>
       </c>
     </row>
     <row r="131">
@@ -2778,16 +2778,16 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>홍천군</t>
+          <t>계룡시</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>62957</v>
+        <v>37690</v>
       </c>
     </row>
     <row r="132">
@@ -2796,16 +2796,16 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청남도</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>태백시</t>
+          <t>청양군</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>44175</v>
+        <v>29671</v>
       </c>
     </row>
     <row r="133">
@@ -2814,16 +2814,16 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>철원군</t>
+          <t>충주시</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>43189</v>
+        <v>198077</v>
       </c>
     </row>
     <row r="134">
@@ -2832,16 +2832,16 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>횡성군</t>
+          <t>제천시</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>39668</v>
+        <v>127462</v>
       </c>
     </row>
     <row r="135">
@@ -2850,16 +2850,16 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>평창군</t>
+          <t>음성군</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>38439</v>
+        <v>86441</v>
       </c>
     </row>
     <row r="136">
@@ -2868,16 +2868,16 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>영월군</t>
+          <t>진천군</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>34966</v>
+        <v>62809</v>
       </c>
     </row>
     <row r="137">
@@ -2886,16 +2886,16 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>정선군</t>
+          <t>옥천군</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>34242</v>
+        <v>47599</v>
       </c>
     </row>
     <row r="138">
@@ -2904,16 +2904,16 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>인제군</t>
+          <t>영동군</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>29260</v>
+        <v>46524</v>
       </c>
     </row>
     <row r="139">
@@ -2922,16 +2922,16 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>고성군</t>
+          <t>증평군</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>25589</v>
+        <v>34480</v>
       </c>
     </row>
     <row r="140">
@@ -2940,16 +2940,16 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>양양군</t>
+          <t>괴산군</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>24551</v>
+        <v>33297</v>
       </c>
     </row>
     <row r="141">
@@ -2958,16 +2958,16 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>화천군</t>
+          <t>보은군</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>23612</v>
+        <v>30685</v>
       </c>
     </row>
     <row r="142">
@@ -2976,16 +2976,16 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>강원도</t>
+          <t>충청북도</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>양구군</t>
+          <t>단양군</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>20809</v>
+        <v>27130</v>
       </c>
     </row>
   </sheetData>
